--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3608.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3608.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.292950161017612</v>
+        <v>1.261385560035706</v>
       </c>
       <c r="B1">
-        <v>2.373577637961445</v>
+        <v>2.487245559692383</v>
       </c>
       <c r="C1">
-        <v>3.677201183464064</v>
+        <v>4.66655969619751</v>
       </c>
       <c r="D1">
-        <v>2.88130265463043</v>
+        <v>2.016480922698975</v>
       </c>
       <c r="E1">
-        <v>0.9094663347198528</v>
+        <v>1.149526596069336</v>
       </c>
     </row>
   </sheetData>
